--- a/data/outputs/activity_summarised_gender.xlsx
+++ b/data/outputs/activity_summarised_gender.xlsx
@@ -492,22 +492,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.88576</v>
+        <v>0.88587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.56121</v>
+        <v>0.56123</v>
       </c>
       <c r="E2" t="n">
-        <v>0.32455</v>
+        <v>0.32463</v>
       </c>
       <c r="F2" t="n">
-        <v>152.894825</v>
+        <v>153.07</v>
       </c>
       <c r="G2" t="n">
-        <v>409.228819</v>
+        <v>409.49</v>
       </c>
       <c r="H2" t="n">
-        <v>562.123644</v>
+        <v>562.5599999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0.7</v>
@@ -528,19 +528,19 @@
         <v>0.85572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64971</v>
+        <v>0.64978</v>
       </c>
       <c r="E3" t="n">
-        <v>0.20601</v>
+        <v>0.20594</v>
       </c>
       <c r="F3" t="n">
-        <v>151.950445</v>
+        <v>152.07</v>
       </c>
       <c r="G3" t="n">
-        <v>271.082674</v>
+        <v>271.26</v>
       </c>
       <c r="H3" t="n">
-        <v>423.033119</v>
+        <v>423.33</v>
       </c>
       <c r="I3" t="n">
         <v>0.6</v>
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7875490000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G4" t="n">
-        <v>3.955473</v>
+        <v>3.96</v>
       </c>
       <c r="H4" t="n">
-        <v>4.743022000000001</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
         <v>0.8</v>
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.84178</v>
+        <v>0.84166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5545099999999999</v>
+        <v>0.55446</v>
       </c>
       <c r="E5" t="n">
-        <v>0.28728</v>
+        <v>0.28719</v>
       </c>
       <c r="F5" t="n">
-        <v>162.760437908</v>
+        <v>162.62</v>
       </c>
       <c r="G5" t="n">
-        <v>457.921359301</v>
+        <v>457.67</v>
       </c>
       <c r="H5" t="n">
-        <v>620.681797209</v>
+        <v>620.29</v>
       </c>
       <c r="I5" t="n">
         <v>0.7</v>
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.84803</v>
+        <v>0.84828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.56565</v>
+        <v>0.56551</v>
       </c>
       <c r="E6" t="n">
-        <v>0.28238</v>
+        <v>0.28277</v>
       </c>
       <c r="F6" t="n">
-        <v>145.685280349</v>
+        <v>145.6</v>
       </c>
       <c r="G6" t="n">
-        <v>324.945680798</v>
+        <v>324.61</v>
       </c>
       <c r="H6" t="n">
-        <v>470.630961147</v>
+        <v>470.21</v>
       </c>
       <c r="I6" t="n">
         <v>0.7</v>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.52425</v>
+        <v>0.52258</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3759</v>
+        <v>0.37619</v>
       </c>
       <c r="E7" t="n">
-        <v>0.14835</v>
+        <v>0.14639</v>
       </c>
       <c r="F7" t="n">
-        <v>3.104536473</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>4.218114606</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>7.322651079</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>0.6</v>
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.78571</v>
+        <v>0.78564</v>
       </c>
       <c r="D8" t="n">
         <v>0.60599</v>
       </c>
       <c r="E8" t="n">
-        <v>0.17972</v>
+        <v>0.17964</v>
       </c>
       <c r="F8" t="n">
-        <v>126.34832059</v>
+        <v>126.42</v>
       </c>
       <c r="G8" t="n">
-        <v>455.729600056</v>
+        <v>455.7</v>
       </c>
       <c r="H8" t="n">
-        <v>582.0779206459999</v>
+        <v>582.12</v>
       </c>
       <c r="I8" t="n">
         <v>0.8</v>
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8002</v>
+        <v>0.80036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.62769</v>
+        <v>0.62764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.17252</v>
+        <v>0.17271</v>
       </c>
       <c r="F9" t="n">
-        <v>168.673952612</v>
+        <v>168.7</v>
       </c>
       <c r="G9" t="n">
-        <v>498.319193848</v>
+        <v>498.5</v>
       </c>
       <c r="H9" t="n">
-        <v>666.9931464599999</v>
+        <v>667.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.7</v>
@@ -756,22 +756,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8525199999999999</v>
+        <v>0.85244</v>
       </c>
       <c r="D10" t="n">
-        <v>0.61927</v>
+        <v>0.61914</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23325</v>
+        <v>0.2333</v>
       </c>
       <c r="F10" t="n">
-        <v>180.781313097</v>
+        <v>181.21</v>
       </c>
       <c r="G10" t="n">
-        <v>298.063065382</v>
+        <v>298.9</v>
       </c>
       <c r="H10" t="n">
-        <v>478.8443784789999</v>
+        <v>480.11</v>
       </c>
       <c r="I10" t="n">
         <v>0.6</v>
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8082</v>
+        <v>0.8081199999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.65778</v>
+        <v>0.65781</v>
       </c>
       <c r="E11" t="n">
-        <v>0.15043</v>
+        <v>0.15031</v>
       </c>
       <c r="F11" t="n">
-        <v>134.677835705</v>
+        <v>135.03</v>
       </c>
       <c r="G11" t="n">
-        <v>292.100692372</v>
+        <v>292.85</v>
       </c>
       <c r="H11" t="n">
-        <v>426.778528077</v>
+        <v>427.88</v>
       </c>
       <c r="I11" t="n">
         <v>0.7</v>
@@ -825,19 +825,19 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.80228</v>
+        <v>0.80153</v>
       </c>
       <c r="E12" t="n">
-        <v>0.19772</v>
+        <v>0.19847</v>
       </c>
       <c r="F12" t="n">
-        <v>1.508475332</v>
+        <v>1.51</v>
       </c>
       <c r="G12" t="n">
-        <v>6.533542853</v>
+        <v>6.55</v>
       </c>
       <c r="H12" t="n">
-        <v>8.042018185</v>
+        <v>8.06</v>
       </c>
       <c r="I12" t="n">
         <v>0.8</v>
@@ -855,25 +855,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.54178</v>
+        <v>0.55341</v>
       </c>
       <c r="D13" t="n">
-        <v>0.18112</v>
+        <v>0.18173</v>
       </c>
       <c r="E13" t="n">
-        <v>0.36067</v>
+        <v>0.37168</v>
       </c>
       <c r="F13" t="n">
-        <v>129.307234966</v>
+        <v>108.13</v>
       </c>
       <c r="G13" t="n">
-        <v>369.083662852</v>
+        <v>345.96</v>
       </c>
       <c r="H13" t="n">
-        <v>498.390897818</v>
+        <v>454.09</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.63386</v>
+        <v>0.56925</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24456</v>
+        <v>0.25332</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3893</v>
+        <v>0.31593</v>
       </c>
       <c r="F14" t="n">
-        <v>193.837285048</v>
+        <v>226.79</v>
       </c>
       <c r="G14" t="n">
-        <v>429.107484928</v>
+        <v>402.37</v>
       </c>
       <c r="H14" t="n">
-        <v>622.944769976</v>
+        <v>629.16</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -921,22 +921,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3149</v>
+        <v>0.11601</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6851</v>
+        <v>-0.11601</v>
       </c>
       <c r="F15" t="n">
-        <v>1.326970317</v>
+        <v>0.93</v>
       </c>
       <c r="G15" t="n">
-        <v>6.621171684</v>
+        <v>4.31</v>
       </c>
       <c r="H15" t="n">
-        <v>7.948142001</v>
+        <v>5.239999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>0.8</v>
@@ -954,25 +954,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.82869</v>
+        <v>0.82239</v>
       </c>
       <c r="D16" t="n">
-        <v>0.48563</v>
+        <v>0.49089</v>
       </c>
       <c r="E16" t="n">
-        <v>0.34306</v>
+        <v>0.33149</v>
       </c>
       <c r="F16" t="n">
-        <v>146.932258094</v>
+        <v>141.6</v>
       </c>
       <c r="G16" t="n">
-        <v>438.956846153</v>
+        <v>438.12</v>
       </c>
       <c r="H16" t="n">
-        <v>585.889104247</v>
+        <v>579.72</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7440600000000001</v>
+        <v>0.76685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4532</v>
+        <v>0.46295</v>
       </c>
       <c r="E17" t="n">
-        <v>0.29085</v>
+        <v>0.3039</v>
       </c>
       <c r="F17" t="n">
-        <v>168.210179712</v>
+        <v>159.34</v>
       </c>
       <c r="G17" t="n">
-        <v>542.138826235</v>
+        <v>588.46</v>
       </c>
       <c r="H17" t="n">
-        <v>710.349005947</v>
+        <v>747.8000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>0.8</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.30905</v>
+        <v>0.6182800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.30905</v>
+        <v>-0.6182800000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.651321521</v>
+        <v>0.66</v>
       </c>
       <c r="G18" t="n">
-        <v>3.710340709</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
-        <v>4.36166223</v>
+        <v>2.52</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.81175</v>
+        <v>0.81177</v>
       </c>
       <c r="D19" t="n">
-        <v>0.50814</v>
+        <v>0.50801</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3036</v>
+        <v>0.30376</v>
       </c>
       <c r="F19" t="n">
-        <v>171.926091</v>
+        <v>171.97</v>
       </c>
       <c r="G19" t="n">
-        <v>262.147635</v>
+        <v>262.12</v>
       </c>
       <c r="H19" t="n">
-        <v>434.073726</v>
+        <v>434.09</v>
       </c>
       <c r="I19" t="n">
         <v>0.6</v>
@@ -1086,22 +1086,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7789</v>
+        <v>0.77874</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5177</v>
+        <v>0.51768</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2612</v>
+        <v>0.26107</v>
       </c>
       <c r="F20" t="n">
-        <v>146.957871</v>
+        <v>147.07</v>
       </c>
       <c r="G20" t="n">
-        <v>296.038782</v>
+        <v>296.13</v>
       </c>
       <c r="H20" t="n">
-        <v>442.9966529999999</v>
+        <v>443.2</v>
       </c>
       <c r="I20" t="n">
         <v>0.7</v>
@@ -1122,19 +1122,19 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.84016</v>
+        <v>0.84073</v>
       </c>
       <c r="E21" t="n">
-        <v>0.15984</v>
+        <v>0.15927</v>
       </c>
       <c r="F21" t="n">
-        <v>0.393975</v>
+        <v>0.39</v>
       </c>
       <c r="G21" t="n">
-        <v>3.827184</v>
+        <v>3.83</v>
       </c>
       <c r="H21" t="n">
-        <v>4.221159</v>
+        <v>4.22</v>
       </c>
       <c r="I21" t="n">
         <v>0.9</v>
@@ -1251,22 +1251,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.87254</v>
+        <v>0.87255</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6103</v>
+        <v>0.61027</v>
       </c>
       <c r="E25" t="n">
-        <v>0.26225</v>
+        <v>0.26228</v>
       </c>
       <c r="F25" t="n">
-        <v>152.294260168</v>
+        <v>152.3</v>
       </c>
       <c r="G25" t="n">
-        <v>579.200223237</v>
+        <v>579.15</v>
       </c>
       <c r="H25" t="n">
-        <v>731.494483405</v>
+        <v>731.45</v>
       </c>
       <c r="I25" t="n">
         <v>0.8</v>
@@ -1284,22 +1284,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.90727</v>
+        <v>0.9071399999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.67526</v>
+        <v>0.6752899999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.23201</v>
+        <v>0.23185</v>
       </c>
       <c r="F26" t="n">
-        <v>158.113586178</v>
+        <v>158.08</v>
       </c>
       <c r="G26" t="n">
-        <v>527.532151858</v>
+        <v>527.45</v>
       </c>
       <c r="H26" t="n">
-        <v>685.645738036</v>
+        <v>685.5300000000001</v>
       </c>
       <c r="I26" t="n">
         <v>0.8</v>
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8815499999999999</v>
+        <v>0.88154</v>
       </c>
       <c r="D27" t="n">
-        <v>0.56657</v>
+        <v>0.56668</v>
       </c>
       <c r="E27" t="n">
-        <v>0.31498</v>
+        <v>0.31486</v>
       </c>
       <c r="F27" t="n">
-        <v>100.354311</v>
+        <v>100.37</v>
       </c>
       <c r="G27" t="n">
-        <v>755.191278</v>
+        <v>755.6</v>
       </c>
       <c r="H27" t="n">
-        <v>855.5455890000001</v>
+        <v>855.97</v>
       </c>
       <c r="I27" t="n">
         <v>0.9</v>
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8704499999999999</v>
+        <v>0.8702800000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.63281</v>
+        <v>0.63278</v>
       </c>
       <c r="E28" t="n">
-        <v>0.23764</v>
+        <v>0.2375</v>
       </c>
       <c r="F28" t="n">
-        <v>147.858101</v>
+        <v>147.93</v>
       </c>
       <c r="G28" t="n">
-        <v>524.9402279999999</v>
+        <v>525.16</v>
       </c>
       <c r="H28" t="n">
-        <v>672.798329</v>
+        <v>673.0899999999999</v>
       </c>
       <c r="I28" t="n">
         <v>0.8</v>
@@ -1386,19 +1386,19 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.37524</v>
+        <v>0.3756</v>
       </c>
       <c r="E29" t="n">
-        <v>0.62476</v>
+        <v>0.6244</v>
       </c>
       <c r="F29" t="n">
-        <v>2.300367</v>
+        <v>2.3</v>
       </c>
       <c r="G29" t="n">
-        <v>14.509493</v>
+        <v>14.51</v>
       </c>
       <c r="H29" t="n">
-        <v>16.80986</v>
+        <v>16.81</v>
       </c>
       <c r="I29" t="n">
         <v>0.9</v>
@@ -1419,19 +1419,19 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.59855</v>
+        <v>0.5978599999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.40145</v>
+        <v>0.40214</v>
       </c>
       <c r="F30" t="n">
-        <v>1.708596</v>
+        <v>1.71</v>
       </c>
       <c r="G30" t="n">
-        <v>5.623156</v>
+        <v>5.619999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>7.331752</v>
+        <v>7.329999999999999</v>
       </c>
       <c r="I30" t="n">
         <v>0.8</v>
